--- a/data/trans_dic/P32A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Clase-trans_dic.xlsx
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008708832132578243</v>
+        <v>0.008897298465595799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003305110846057465</v>
+        <v>0.003307751100249394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009460464680949091</v>
+        <v>0.009160832901415507</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003154079804869019</v>
+        <v>0.003198668585831409</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006286944918733515</v>
+        <v>0.006266164057197372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004522741196324974</v>
+        <v>0.004580935920675972</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009248298993635901</v>
+        <v>0.009597072168567453</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01591494657198422</v>
+        <v>0.01625206314539108</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04368628312525698</v>
+        <v>0.04222474801089436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02736022117282408</v>
+        <v>0.02887161134918344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0428115625894343</v>
+        <v>0.04332569067453075</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.02977711058089453</v>
+        <v>0.02732413624678424</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06584125245234523</v>
+        <v>0.06797604534848195</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03747283540907276</v>
+        <v>0.03930923059342816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0105502164715885</v>
+        <v>0.01210620545784606</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03222727280618506</v>
+        <v>0.029656318264706</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02978792013746702</v>
+        <v>0.03022410582505761</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03131815350356261</v>
+        <v>0.03318290491867643</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.02217079127270675</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02820634380324253</v>
+        <v>0.02820634380324252</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.008206816823809969</v>
@@ -829,7 +829,7 @@
         <v>0.01711955102519514</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0180518687696089</v>
+        <v>0.01805186876960891</v>
       </c>
     </row>
     <row r="8">
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004283473239633492</v>
+        <v>0.004339392314087645</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003627393873571118</v>
+        <v>0.003526664142279218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003847544087378527</v>
+        <v>0.00384975912562511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00315434407190891</v>
+        <v>0.003127419052577889</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005216910608851806</v>
+        <v>0.006279955930300188</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01011121455994773</v>
+        <v>0.01060573495713469</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00257832520679389</v>
+        <v>0.002556894783884025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003093073682009527</v>
+        <v>0.003091569964561545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006866785348671476</v>
+        <v>0.007084292217886909</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008189138863821445</v>
+        <v>0.008968159021243902</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03374398246045884</v>
+        <v>0.03778912656081055</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05686656674142129</v>
+        <v>0.05265376179447785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03552606458784954</v>
+        <v>0.03853342189177181</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03374310125813503</v>
+        <v>0.03215925077181905</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.04242279437430185</v>
+        <v>0.04182393266631385</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05426249923274868</v>
+        <v>0.05399979834664004</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05682082649982027</v>
+        <v>0.05839634367551098</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02317113028691269</v>
+        <v>0.02192076710722412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03886973237135518</v>
+        <v>0.03695969660573844</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03157814133603238</v>
+        <v>0.03323249829196226</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03256172176040502</v>
+        <v>0.03671842932425003</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.02280668606058694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01819872851548794</v>
+        <v>0.01819872851548793</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005344741778826991</v>
+        <v>0.00505402519490146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01931085752226298</v>
+        <v>0.01722498917766991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01020986329342013</v>
+        <v>0.008833106820445153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006967273167043082</v>
+        <v>0.006960276956160481</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -990,16 +990,16 @@
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>0.004278697810537312</v>
+        <v>0.004039957009263142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01516196854773723</v>
+        <v>0.01484467976938058</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01068195628602511</v>
+        <v>0.01055451009711994</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005668209158765137</v>
+        <v>0.005852131695498817</v>
       </c>
     </row>
     <row r="12">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02936552968019556</v>
+        <v>0.02908968921050615</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06167287525079876</v>
+        <v>0.06258978306237832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04708237776971898</v>
+        <v>0.0435773181497746</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0402239345400144</v>
+        <v>0.04007667209525801</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.1017307998436694</v>
+        <v>0.08546640580033266</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.02539082517853643</v>
+        <v>0.02615391739863387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05075741470566381</v>
+        <v>0.0515773363391725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04243504178648537</v>
+        <v>0.0452441864581823</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03283882984621327</v>
+        <v>0.03457598448541699</v>
       </c>
     </row>
     <row r="13">
@@ -1096,16 +1096,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007073777608009625</v>
+        <v>0.007005212021580182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01307459839748689</v>
+        <v>0.01411472914394443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008597589815478469</v>
+        <v>0.008349658191416687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01201840677660021</v>
+        <v>0.01088586343294521</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009543727090466051</v>
+        <v>0.009940608228575534</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005242557418636923</v>
+        <v>0.005444696395604401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.010815769568204</v>
+        <v>0.01119677964628294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006664866271898155</v>
+        <v>0.006890969809694703</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01365467365322201</v>
+        <v>0.01504366630099016</v>
       </c>
     </row>
     <row r="15">
@@ -1138,38 +1138,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0260832311991397</v>
+        <v>0.0266965553481051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03754577186355445</v>
+        <v>0.03858092728643035</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02993767624679619</v>
+        <v>0.02992235615930406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0384304282441617</v>
+        <v>0.03681284248963283</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.02587843329807888</v>
+        <v>0.029900070263585</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02269254380067825</v>
+        <v>0.01892276960379834</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06364489731821688</v>
+        <v>0.06585401861432028</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01990934725959885</v>
+        <v>0.02058007985704628</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03052196117191747</v>
+        <v>0.03038378566059345</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02233934014484821</v>
+        <v>0.02224942807484847</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03729929457183746</v>
+        <v>0.03734439951670546</v>
       </c>
     </row>
     <row r="16">
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01553312568320082</v>
+        <v>0.01427127157457036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01642025932629015</v>
+        <v>0.01734782684345173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009211303607884486</v>
+        <v>0.008765822907177151</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1249,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006154650022789335</v>
+        <v>0.006367222152065476</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002824673989810853</v>
+        <v>0.00288198222871773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01065027501309891</v>
+        <v>0.01225334480305092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01254381775694702</v>
+        <v>0.01221278143728058</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009384011609833966</v>
+        <v>0.009870734515602773</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03073184302240013</v>
+        <v>0.03334006306044781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05706005674683549</v>
+        <v>0.0535677121009815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06029881559525248</v>
+        <v>0.06187075845778831</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04031627259663142</v>
+        <v>0.04210940547567221</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04750845159209423</v>
+        <v>0.04882346108042751</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03872576775363675</v>
+        <v>0.03441626258151288</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02950643516502786</v>
+        <v>0.02913371842728351</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03994115238393205</v>
+        <v>0.03926453727751805</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02866644614092503</v>
+        <v>0.02797992313549396</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03818419671690641</v>
+        <v>0.03962479016936551</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04338261405484781</v>
+        <v>0.04219705626535381</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03371763977904454</v>
+        <v>0.03220836183650074</v>
       </c>
     </row>
     <row r="19">
@@ -1365,10 +1365,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.006649877399490889</v>
+        <v>0.006553661106091844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005970845861921949</v>
+        <v>0.006549701678458622</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.007402059289821402</v>
+        <v>0.007241794636196656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.006862045482090828</v>
+        <v>0.006983893699957587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01157741773302622</v>
+        <v>0.01023248927645391</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>0</v>
@@ -1405,35 +1405,35 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.06177581288469347</v>
+        <v>0.06290317329246316</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06039302000052248</v>
+        <v>0.06119422453193198</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.02710879629622925</v>
+        <v>0.02334405286356143</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0397512412216036</v>
+        <v>0.03989924857211856</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0436231195948527</v>
+        <v>0.04438757425102326</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01339280968288455</v>
+        <v>0.01630751307348786</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03641349849631825</v>
+        <v>0.03573179047190551</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03989244273322744</v>
+        <v>0.04100518509402775</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="22">
@@ -1492,40 +1492,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006628952700232334</v>
+        <v>0.006723890193317796</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01868139070814994</v>
+        <v>0.01879406248563554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01377100522932962</v>
+        <v>0.01439555871567928</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01252171070347971</v>
+        <v>0.01306543519242304</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003825429028184671</v>
+        <v>0.003849501648075937</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.007482441343047521</v>
+        <v>0.007315477448114203</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01230293396008516</v>
+        <v>0.01276349923927324</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.005082194921037089</v>
+        <v>0.005609444452121297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0149266216600972</v>
+        <v>0.01508262136113621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01331162047931117</v>
+        <v>0.01346381283641787</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01418748118320443</v>
+        <v>0.01413539856958353</v>
       </c>
     </row>
     <row r="24">
@@ -1536,40 +1536,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01670440850368603</v>
+        <v>0.01608779054923117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0341361466650954</v>
+        <v>0.03390239019586724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02753975246395328</v>
+        <v>0.0278837798034082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02536093915100514</v>
+        <v>0.02570204145146243</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01804924179455607</v>
+        <v>0.01752506348415701</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02311683517887536</v>
+        <v>0.02278508918993501</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03282127531286089</v>
+        <v>0.03422870956001325</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01223589589991709</v>
+        <v>0.01289034508107683</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02566936399848475</v>
+        <v>0.02571663654278571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02306791668948643</v>
+        <v>0.02331370279098982</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02497511007334106</v>
+        <v>0.02508891892222791</v>
       </c>
     </row>
     <row r="25">
@@ -1845,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2556</v>
+        <v>2611</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2848</v>
+        <v>2758</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2769</v>
+        <v>2760</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1998</v>
+        <v>2024</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4364</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="7">
@@ -1884,38 +1884,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4612</v>
+        <v>4710</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12820</v>
+        <v>12392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7901</v>
+        <v>8337</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12889</v>
+        <v>13044</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>4376</v>
+        <v>4015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10076</v>
+        <v>10403</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6399</v>
+        <v>6712</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4398</v>
+        <v>5046</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14193</v>
+        <v>13061</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13161</v>
+        <v>13354</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14776</v>
+        <v>15656</v>
       </c>
     </row>
     <row r="8">
@@ -2018,38 +2018,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>920</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>999</v>
+        <v>1202</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1452</v>
+        <v>1523</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2956</v>
+        <v>3049</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3005</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="11">
@@ -2060,38 +2060,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7532</v>
+        <v>8435</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14414</v>
+        <v>13346</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8491</v>
+        <v>9210</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7537</v>
+        <v>7183</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6046</v>
+        <v>5961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10387</v>
+        <v>10337</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8158</v>
+        <v>8384</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8737</v>
+        <v>8266</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>15392</v>
+        <v>14635</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13592</v>
+        <v>14304</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11948</v>
+        <v>13473</v>
       </c>
     </row>
     <row r="12">
@@ -2194,16 +2194,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1811</v>
+        <v>1712</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7478</v>
+        <v>6671</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3394</v>
+        <v>2936</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2212,16 +2212,16 @@
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>1714</v>
+        <v>1618</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7078</v>
+        <v>6930</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4138</v>
+        <v>4089</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1557</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="15">
@@ -2232,34 +2232,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9948</v>
+        <v>9855</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23884</v>
+        <v>24239</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15650</v>
+        <v>14485</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9175</v>
+        <v>9142</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5594</v>
+        <v>4700</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>10170</v>
+        <v>10476</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23694</v>
+        <v>24077</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16439</v>
+        <v>17527</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9020</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="16">
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4736</v>
+        <v>4690</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8627</v>
+        <v>9314</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5655</v>
+        <v>5492</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6493</v>
+        <v>5881</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2381,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2178</v>
+        <v>2269</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4518</v>
+        <v>4693</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9617</v>
+        <v>9955</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6366</v>
+        <v>6581</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10493</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="19">
@@ -2404,38 +2404,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17464</v>
+        <v>17874</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24775</v>
+        <v>25458</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19691</v>
+        <v>19681</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20763</v>
+        <v>19889</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5933</v>
+        <v>6855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6748</v>
+        <v>5627</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14524</v>
+        <v>15028</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17159</v>
+        <v>17737</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>27138</v>
+        <v>27015</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>21336</v>
+        <v>21250</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28664</v>
+        <v>28698</v>
       </c>
     </row>
     <row r="20">
@@ -2541,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4708</v>
+        <v>4325</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5197</v>
+        <v>5490</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2367</v>
+        <v>2253</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2559,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5176</v>
+        <v>5955</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6365</v>
+        <v>6197</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3850</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="23">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6640</v>
+        <v>7204</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17293</v>
+        <v>16235</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19083</v>
+        <v>19581</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10361</v>
+        <v>10822</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6670</v>
+        <v>6855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7083</v>
+        <v>6295</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5633</v>
+        <v>5562</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6121</v>
+        <v>6017</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10218</v>
+        <v>9974</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>18557</v>
+        <v>19257</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>22012</v>
+        <v>21411</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13832</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="24">
@@ -2719,10 +2719,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>961</v>
+        <v>1054</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1885</v>
+        <v>1844</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2742</v>
+        <v>2790</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4812</v>
+        <v>4253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -2759,35 +2759,35 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>8482</v>
+        <v>8637</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9719</v>
+        <v>9848</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>5912</v>
+        <v>5091</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10424</v>
+        <v>10463</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11109</v>
+        <v>11304</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4789</v>
+        <v>5832</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>14549</v>
+        <v>14276</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>16579</v>
+        <v>17042</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="28">
@@ -2890,40 +2890,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12442</v>
+        <v>12620</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>38006</v>
+        <v>38235</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27478</v>
+        <v>28724</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20481</v>
+        <v>21370</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3992</v>
+        <v>4017</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>8548</v>
+        <v>8357</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10689</v>
+        <v>11089</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14080</v>
+        <v>15540</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>45942</v>
+        <v>46422</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>41768</v>
+        <v>42246</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>35532</v>
+        <v>35402</v>
       </c>
     </row>
     <row r="31">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31353</v>
+        <v>30195</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>69448</v>
+        <v>68972</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>54951</v>
+        <v>55638</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>41481</v>
+        <v>42039</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>18833</v>
+        <v>18286</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>26408</v>
+        <v>26029</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>28516</v>
+        <v>29739</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>33898</v>
+        <v>35712</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>79007</v>
+        <v>79152</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>72381</v>
+        <v>73152</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>62549</v>
+        <v>62834</v>
       </c>
     </row>
     <row r="32">
